--- a/testFun_result.xlsx
+++ b/testFun_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyy/Desktop/XJTLU/MSc_Project/Julia/test_julia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC52CF-EE6A-F54C-A9BC-CB7A81D5E55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267BA55-5533-F449-BF39-70506DD0C23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="500" windowWidth="27460" windowHeight="16940" xr2:uid="{6926D9D6-61B5-0548-8041-C2591884281E}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53673A2D-875D-8E40-9E5A-4864BB1BC6C6}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="3">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
@@ -806,7 +806,7 @@
         <v>7.2163898</v>
       </c>
       <c r="E5" s="3">
-        <v>104106</v>
+        <v>94106</v>
       </c>
       <c r="F5" s="3">
         <v>47686</v>
@@ -874,7 +874,7 @@
         <v>1.9232</v>
       </c>
       <c r="E7" s="3">
-        <v>29719</v>
+        <v>19672</v>
       </c>
       <c r="F7" s="3">
         <v>16242</v>
@@ -922,10 +922,10 @@
         <v>923</v>
       </c>
       <c r="I8" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3">
-        <v>407</v>
+        <v>607</v>
       </c>
       <c r="K8" s="3">
         <v>10</v>
@@ -953,13 +953,13 @@
         <v>85</v>
       </c>
       <c r="H9" s="3">
-        <v>984</v>
+        <v>873</v>
       </c>
       <c r="I9" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="K9" s="3">
         <v>10</v>
@@ -1016,7 +1016,7 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>12758</v>
+        <v>6392</v>
       </c>
       <c r="F11" s="3">
         <v>3520</v>
@@ -1025,7 +1025,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="3">
-        <v>683</v>
+        <v>373</v>
       </c>
       <c r="I11" s="3">
         <v>15</v>
@@ -1552,8 +1552,12 @@
         <v>4524</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="3">
+        <v>5.3834999999999997</v>
+      </c>
+      <c r="F27" s="3">
+        <v>480</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1570,8 +1574,12 @@
         <v>5323</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="3">
+        <v>6.6308507919310999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>511</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1588,8 +1596,12 @@
         <v>4198</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="3">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>394</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1606,8 +1618,12 @@
         <v>3302</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="3">
+        <v>7.2163898</v>
+      </c>
+      <c r="F30" s="3">
+        <v>309</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1624,8 +1640,12 @@
         <v>3879</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="F31" s="3">
+        <v>420</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1642,8 +1662,12 @@
         <v>1207</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="3">
+        <v>1.9232</v>
+      </c>
+      <c r="F32" s="3">
+        <v>48</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1660,8 +1684,12 @@
         <v>407</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="3">
+        <v>1.8163</v>
+      </c>
+      <c r="F33" s="3">
+        <v>16</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1678,8 +1706,12 @@
         <v>402</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="F34" s="3">
+        <v>17</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1696,8 +1728,12 @@
         <v>632</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="3">
+        <v>0.37122899999999998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1714,8 +1750,12 @@
         <v>617</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="F36" s="3">
+        <v>15</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1732,8 +1772,12 @@
         <v>609</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="3">
+        <v>0.2631</v>
+      </c>
+      <c r="F37" s="3">
+        <v>17</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1750,8 +1794,12 @@
         <v>1205</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="3">
+        <v>1.9042300000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>22</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1768,8 +1816,12 @@
         <v>2391</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="3">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>123</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1786,8 +1838,12 @@
         <v>870</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="3">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1804,8 +1860,12 @@
         <v>1654</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="3">
+        <v>0.85318000000000005</v>
+      </c>
+      <c r="F41" s="3">
+        <v>102</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1820,6 +1880,12 @@
       <c r="C42" s="3">
         <v>625</v>
       </c>
+      <c r="E42" s="3">
+        <v>0.49951810000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="30">
       <c r="B43" s="3">
@@ -1828,6 +1894,12 @@
       <c r="C43" s="3">
         <v>607</v>
       </c>
+      <c r="E43" s="3">
+        <v>0.21438309999999999</v>
+      </c>
+      <c r="F43" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="30">
       <c r="B44" s="3">
@@ -1836,6 +1908,12 @@
       <c r="C44" s="3">
         <v>1728</v>
       </c>
+      <c r="E44" s="3">
+        <v>7.0209788</v>
+      </c>
+      <c r="F44" s="3">
+        <v>92</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="30">
       <c r="B45" s="3">
@@ -1844,6 +1922,12 @@
       <c r="C45" s="3">
         <v>5168</v>
       </c>
+      <c r="E45" s="3">
+        <v>4.8016069999999997</v>
+      </c>
+      <c r="F45" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="B46" s="3">
@@ -1851,6 +1935,12 @@
       </c>
       <c r="C46" s="3">
         <v>626</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1.03238188</v>
+      </c>
+      <c r="F46" s="3">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
